--- a/biology/Microbiologie/Inferostoma_jankowskii/Inferostoma_jankowskii.xlsx
+++ b/biology/Microbiologie/Inferostoma_jankowskii/Inferostoma_jankowskii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Inferostoma · Inferostomatidae
 Inferostoma jankowskii, unique représentant du genre Inferostoma et de la famille des Inferostomatidae, est une espèce de Ciliés de l’ordre des Clevelandellida.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Inferostoma est dérivé du latin inferus, « en dessous », et du grec ancien στόμα / stoma, « bouche ».
 </t>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Inferostoma a un corps de forme à peu près ovoïde, mais quelque peu déformé par une énorme ventouse sur le côté droit à l'extrémité antérieure et par la position de la cavité buccale qui se limite à un infundibulum (structure creuse en forme d'entonnoir) situé sur le pôle postérieur tronqué. 
-D’autres caractéristiques le rapproche de genres de la famille des Sicuophoridae[1]. 
+D’autres caractéristiques le rapproche de genres de la famille des Sicuophoridae. 
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Inferostoma, découvert dans les eaux douces du Nord Vietnam, est un endocommensal de l'intestin de l'espèce de poissons Spinibarbus denticulatus (en) (famille des Cyprinidae)[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Inferostoma, découvert dans les eaux douces du Nord Vietnam, est un endocommensal de l'intestin de l'espèce de poissons Spinibarbus denticulatus (en) (famille des Cyprinidae).
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(article en russe, résumé en anglais) (ru + en) H. Ky, « Novye infuzorii (Ciliata) iz kishechnika presnovodnykh ryb severnogo b'etnama - New Ciliata from the intensite of freshwater fishes of Northern Vietnam », Acta Protozoologica, vol. 08, nos 1-33,‎ 1970-1971 (ISSN 0065-1583, lire en ligne, consulté le 29 octobre 2023)</t>
         </is>
